--- a/examples/DOE/fig3c.xlsx
+++ b/examples/DOE/fig3c.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rubai\Documents\Programming\AI3SD\edbo\examples\DOE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F64DFF91-D75C-4CB0-9FAD-C644BD65A1A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37F99A8-A918-4C70-9303-778CC6BBEF7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fig3c" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,6 +596,1588 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average observed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> yield through batches</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fig3c!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>fig3c!$Q$10:$AA$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>8.272746282</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.10725652</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9631888879999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.1234090480000001</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.89312143099999997</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.77563589399999999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.70190740100000004</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.63479465199999996</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.57745576499999995</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.50709278199999996</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.47429485599999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>fig3c!$Q$10:$AA$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>8.272746282</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.10725652</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9631888879999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.1234090480000001</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.89312143099999997</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.77563589399999999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.70190740100000004</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.63479465199999996</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.57745576499999995</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.50709278199999996</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.47429485599999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>fig3c!$Q$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fig3c!$Q$2:$AA$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>82.827200000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.845600000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.463399999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.106200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.096199999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.717200000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.058000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.485600000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.615799999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.713399999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA14-4CF5-876D-1E346364B264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fig3c!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fig3c!$Q$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fig3c!$Q$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>82.827200000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.906599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.925200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.443399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.153999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.784800000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.616600000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.941999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.141199999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.760599999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.032399999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA14-4CF5-876D-1E346364B264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fig3c!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fig3c!$Q$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fig3c!$Q$4:$AA$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>82.827200000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.312799999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.628799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.130399999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.168599999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.461200000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.307199999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.491799999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.629800000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.707400000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AA14-4CF5-876D-1E346364B264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fig3c!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MeanMax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fig3c!$Q$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fig3c!$Q$5:$AA$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>82.827200000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.5672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.393600000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.338999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.319400000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.813999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.123199999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.402000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.512799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.796999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.869399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AA14-4CF5-876D-1E346364B264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fig3c!$P$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VarMax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fig3c!$Q$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fig3c!$Q$6:$AA$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>82.827200000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.461399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.141800000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.675799999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.099199999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.843999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.904200000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.947199999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.097999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.160399999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AA14-4CF5-876D-1E346364B264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="484209512"/>
+        <c:axId val="484211152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484209512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484211152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484211152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484209512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6720940-86E9-4C0E-8D4D-79A7683B8681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -892,10 +2474,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -11552,5 +13136,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/examples/DOE/fig3c.xlsx
+++ b/examples/DOE/fig3c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rubai\Documents\Programming\AI3SD\edbo\examples\DOE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37F99A8-A918-4C70-9303-778CC6BBEF7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466003FF-7BB0-45BD-9005-05DC13690913}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2141,16 +2141,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2477,7 +2477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
